--- a/data/raw/aggregators/AHSTAT/JPN.xlsx
+++ b/data/raw/aggregators/AHSTAT/JPN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehbib\Documents\GitHub\Global-Macro-Project\data\raw\country_level\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehbib\Documents\GitHub\Global-Macro-Project\data\raw\aggregators\AHSTAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2140A5FC-4B14-4A61-A2CC-8EEDDB4C379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ADB7E2-C2CF-4CC9-A082-55D553BF50ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{F512589D-9F2E-44AD-9B09-3295B30D59A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F512589D-9F2E-44AD-9B09-3295B30D59A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="160">
   <si>
     <t>year</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>person</t>
+  </si>
+  <si>
+    <t>Government Revenue</t>
+  </si>
+  <si>
+    <t>Government Tax Revenue</t>
   </si>
 </sst>
 </file>
@@ -932,20 +938,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EED724-A2A5-48DD-B872-DBBD6B1D2467}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1477,7 +1483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
@@ -1503,7 +1509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
@@ -1529,7 +1535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
@@ -1555,7 +1561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -1578,7 +1584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1831,9 +1837,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1859,12 +1865,12 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1885</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1886</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1887</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1888</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1889</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1890</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1891</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1892</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1893</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1894</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1895</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1896</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1897</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1898</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1899</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1900</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1901</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1902</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1903</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1904</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1905</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1906</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1907</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1908</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>7187</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1909</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>7357</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1910</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>7834</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1911</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1912</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>7927</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1913</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1914</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>8061</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1915</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>8527</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1916</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>9233</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1917</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>10061</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1918</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>10929</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1919</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>11475</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1920</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1921</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>12153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1922</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>11831</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1923</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>11292</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1924</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>12704</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1925</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>12332</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1926</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1927</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>12843</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1928</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>13673</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1929</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>13735</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1930</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>13882</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1931</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>13941</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1932</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>14557</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1933</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>16025</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1934</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>17422</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1935</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>18366</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1936</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>18763</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1937</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>19949</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1938</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>20714</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1939</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>21954</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1940</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>22848</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1941</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1942</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>54384</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1943</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>63824</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1944</v>
       </c>
@@ -2523,12 +2529,12 @@
         <v>74503</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1945</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1946</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>474000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1947</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>1309000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1948</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>2666000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1949</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>3375000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1950</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>3947000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1951</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>5444000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1952</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>6263000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1953</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>7055000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1954</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>7831000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1955</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>8624000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1956</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>9726000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1957</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>11080000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1958</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>11522000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1959</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>12926000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1960</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>15499000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1961</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>19126000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1962</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>21199000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1963</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>24464000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1964</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>28921000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1965</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>31962000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1966</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>36796000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1967</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>43545000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1968</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>51708000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1969</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>60242000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1970</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>70985000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -2749,12 +2755,12 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1871</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>34269471</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1872</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>21390800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1873</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>21420200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1874</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>21445500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1875</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>21490700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1876</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>21583100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1877</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>21692000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1878</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>21788600</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1879</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>21844600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1880</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>21854900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1881</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>21918700</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1882</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>21928900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1883</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>22020500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1884</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>22171800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1885</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>22317700</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1886</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>22359200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1887</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>22378900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1888</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>22557800</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1889</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>22761500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1890</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>22946100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1891</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>23092600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1892</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>23240300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1893</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>23364000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1894</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>23489100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1895</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>23589100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1896</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>23727000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1897</v>
       </c>
@@ -3059,7 +3065,7 @@
         <v>23878000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1898</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>24040300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1899</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>24144800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1900</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>24251700</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1901</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>24367000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1902</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>24481000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1903</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>24632400</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1904</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>24763600</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1905</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>24824300</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1906</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>24928400</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1907</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>25072500</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1908</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>25156800</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1909</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>25197500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1910</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>25266800</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1911</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>25393800</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1912</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>25573300</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1913</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>25751300</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1914</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>25942600</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1915</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>26123200</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1916</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>26386900</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1917</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>26594300</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1918</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>26756800</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1919</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>26779600</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1920</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>27261100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1921</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>27397000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1922</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>27616100</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1923</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>27830500</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1924</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>28075900</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1925</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>28301100</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1926</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>28564500</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1927</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>28820200</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1928</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>29061800</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1929</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>29312100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1930</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>29619600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1931</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>29951900</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1932</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>30214600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1933</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>30670700</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1934</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>31084300</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1935</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>31644900</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1936</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>32059000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1937</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>32156100</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1938</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>32289700</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1939</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>32652300</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1940</v>
       </c>
@@ -3541,13 +3547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C0B992-C1E4-4755-94A0-31FFB052B4E8}">
   <dimension ref="B2:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>108</v>
@@ -3567,7 +3573,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>109</v>
@@ -3587,7 +3593,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>31842</v>
@@ -3635,7 +3641,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5">
         <v>1</v>
@@ -3683,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>110</v>
@@ -3731,7 +3737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>125</v>
@@ -3779,7 +3785,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>140</v>
@@ -3827,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5">
         <v>1871</v>
@@ -3875,7 +3881,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5">
         <v>1920</v>
@@ -3923,7 +3929,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>154</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>156</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>1871</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>34269471</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>1872</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>34450897</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>1873</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>34624889</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>1874</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>34791807</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>1875</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>35036567</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>1876</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>35358865</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>1877</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>35662663</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>1878</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>35968803</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>1879</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>36164709</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>1880</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>36489790</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>1881</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>36793228</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>1882</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>37112203</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>1883</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>37520505</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>1884</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>37877643</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>1885</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>38176457</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>1886</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>38289042</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>1887</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>38626847</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>1888</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>39081711</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>1889</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>39516174</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>1890</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>39868868</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>1891</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>40134870</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>1892</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>40500236</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>1893</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>40791927</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>1894</v>
       </c>
@@ -5223,7 +5229,7 @@
         <v>41211672</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>1895</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>41650245</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>1896</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>42067053</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>1897</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>42559522</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>1898</v>
       </c>
@@ -5423,7 +5429,7 @@
         <v>43075547</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>1899</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>43520895</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>1900</v>
       </c>
@@ -5523,7 +5529,7 @@
         <v>44056240</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>1901</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>44662657</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>1902</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>45246208</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>1903</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>45856439</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>1904</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>46343317</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>1905</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>46746940</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>1906</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>47131377</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>1907</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>47654001</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>1908</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>48225368</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>1909</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>48850735</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>1910</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>49488599</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>1911</v>
       </c>
@@ -6073,7 +6079,7 @@
         <v>50178398</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>1912</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>50925427</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>1913</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>51672473</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>1914</v>
       </c>
@@ -6223,7 +6229,7 @@
         <v>52387547</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>1915</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>53109781</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>1916</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>53767746</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>1917</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>54365876</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>1918</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>54710686</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>1919</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>55032672</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>1920</v>
       </c>
@@ -6536,9 +6542,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1868</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1869</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>3.4169999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1870</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1871</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>3.944</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1872</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>5.4139999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1873</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>7.2370000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1874</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1875</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>14.505000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1876</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1877</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>16.146000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1878</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>16.271000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1879</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>16.202999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1880</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>20.515000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1881</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>21.035</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1882</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>20.195</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1883</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>25.145</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1884</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>27.271999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1885</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>30.684000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1886</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>28.402999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1887</v>
       </c>
@@ -6706,7 +6712,7 @@
         <v>44.956000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1888</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>75.819999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1889</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>76.313000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1890</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>83.515000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1891</v>
       </c>
@@ -6738,7 +6744,7 @@
         <v>90.283000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1892</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>77.150999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1893</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>94.637</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1894</v>
       </c>
@@ -6762,7 +6768,7 @@
         <v>143.625</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1895</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>154.30500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1896</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>201.41200000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1897</v>
       </c>
@@ -6786,7 +6792,7 @@
         <v>292.94799999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1898</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>305.779</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1899</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>259.56400000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1900</v>
       </c>
@@ -6810,7 +6816,7 @@
         <v>273.315</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1901</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>260.90600000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1902</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>215.59700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1903</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>235.095</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1904</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>259.77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1905</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>345.14299999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1906</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>341.64600000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1907</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>423.709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1908</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>458.17200000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1909</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>392.28500000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1910</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>491.50299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1911</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>660.55700000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1912</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>643.46699999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>628.91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1914</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>576.553</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1915</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>610.46500000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1916</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>870.31200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1917</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>1584.9390000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1918</v>
       </c>
@@ -6954,7 +6960,7 @@
         <v>2269.6559999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1919</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>2657.9969999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1920</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>3258.5790000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1921</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>2678.1010000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1922</v>
       </c>
@@ -6986,7 +6992,7 @@
         <v>2740.665</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1923</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>2081.8969999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1924</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>2543.8739999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1925</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>2381.502</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1926</v>
       </c>
@@ -7018,7 +7024,7 @@
         <v>2598.5700000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1927</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>2665.59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1928</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>2498.3589999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1929</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1930</v>
       </c>
@@ -7050,7 +7056,7 @@
         <v>2132.8319999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1931</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>1782.36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1932</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>1974.125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1933</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>2467.09</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1934</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>2923.9180000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1935</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>3479.0949999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1936</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>3777.0039999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1937</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>6332.5259999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1938</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>9641.0889999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1939</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>12048.315000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1940</v>
       </c>
@@ -7143,9 +7149,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1868</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>24.036999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1869</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>50.091000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1870</v>
       </c>
@@ -7213,7 +7219,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1871</v>
       </c>
@@ -7230,7 +7236,7 @@
         <v>72.712999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1872</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>107.70699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1873</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>141.464</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1874</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>145.79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1875</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>148.85400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1876</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>162.286</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1877</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>175.75800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1878</v>
       </c>
@@ -7349,7 +7355,7 @@
         <v>219.62100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1879</v>
       </c>
@@ -7366,7 +7372,7 @@
         <v>212.607</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1880</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>198.85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1881</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>191.45500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1882</v>
       </c>
@@ -7417,7 +7423,7 @@
         <v>186.422</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1883</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>181.59100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1884</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>177.68899999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1885</v>
       </c>
@@ -7468,7 +7474,7 @@
         <v>184.80699999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1886</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>184.69300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1887</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>183.09</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1888</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>204.92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1889</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>214.922</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1890</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>248.095</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1891</v>
       </c>
@@ -7570,7 +7576,7 @@
         <v>245.61199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1892</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>261.733</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1893</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>301.91000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1894</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>333.84500000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1895</v>
       </c>
@@ -7638,7 +7644,7 @@
         <v>407.21100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1896</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>452.101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1897</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>518.52599999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1898</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>532.62599999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1899</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>718.43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1900</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>707.40499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1901</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>690.21799999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1902</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>787.45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1903</v>
       </c>
@@ -7774,7 +7780,7 @@
         <v>845.60500000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1904</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>950.22299999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1905</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>1104.4590000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1906</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>1461.1110000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1907</v>
       </c>
@@ -7842,7 +7848,7 @@
         <v>1370.8989999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1908</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>1336.9079999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1909</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>1499.0709999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1910</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>1653.7170000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1911</v>
       </c>
@@ -7910,7 +7916,7 @@
         <v>1807.383</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1912</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>1857.0119999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>1840.5719999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1914</v>
       </c>
@@ -7961,7 +7967,7 @@
         <v>1790.663</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1915</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>2116.8939999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1916</v>
       </c>
@@ -7995,7 +8001,7 @@
         <v>2922.7539999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1917</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>4186.8100000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1918</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>5393.8289999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1919</v>
       </c>
@@ -8046,7 +8052,7 @@
         <v>6848.5510000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1920</v>
       </c>
@@ -8063,7 +8069,7 @@
         <v>7356.116</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1921</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>7913.3649999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1922</v>
       </c>
@@ -8097,7 +8103,7 @@
         <v>7920.8519999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1923</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>8154.0619999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1924</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>8126.0770000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1925</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>8359.8649999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1926</v>
       </c>
@@ -8165,7 +8171,7 @@
         <v>8325.0239999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1927</v>
       </c>
@@ -8182,7 +8188,7 @@
         <v>8850.6110000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1928</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>9458.2510000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1929</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>9858.7139999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1930</v>
       </c>
@@ -8233,7 +8239,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1931</v>
       </c>
@@ -8250,7 +8256,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1932</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>9826</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1933</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>10458</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1934</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>11013</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1935</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>11468</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1936</v>
       </c>
@@ -8335,7 +8341,7 @@
         <v>12668</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1937</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>15049</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1938</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>18802</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1939</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>25955</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1940</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>33383</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1941</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>41989</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1942</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>54259</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1943</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>71481</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1944</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>119956</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1945</v>
       </c>
@@ -8485,7 +8491,7 @@
         <v>444970</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1946</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>315528</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1947</v>
       </c>
@@ -8519,7 +8525,7 @@
         <v>564625</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1948</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>944020</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1949</v>
       </c>
@@ -8553,7 +8559,7 @@
         <v>1106566</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1950</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>1328339</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1951</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>1753416</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1952</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>2303626</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1953</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>2649706</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1954</v>
       </c>
@@ -8638,7 +8644,7 @@
         <v>2811572</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1955</v>
       </c>
@@ -8655,7 +8661,7 @@
         <v>3232086</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1956</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>3998704</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1957</v>
       </c>
@@ -8689,7 +8695,7 @@
         <v>4357722</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1958</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>4825404</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1959</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>5345504</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1960</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>6420206</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1961</v>
       </c>
@@ -8757,7 +8763,7 @@
         <v>7730647</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1962</v>
       </c>
@@ -8774,7 +8780,7 @@
         <v>9126471</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1963</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>12082710</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1964</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>14044716</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1965</v>
       </c>
@@ -8825,7 +8831,7 @@
         <v>15855277</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1966</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>18115200</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1967</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>20609900</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1968</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>23489100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1969</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>28129800</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1970</v>
       </c>
@@ -8919,13 +8925,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389619B2-8C06-4157-888E-660CCCB86FF3}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +8948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1875</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1876</v>
       </c>
@@ -8967,7 +8976,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1877</v>
       </c>
@@ -8981,7 +8990,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1878</v>
       </c>
@@ -8995,7 +9004,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1879</v>
       </c>
@@ -9009,7 +9018,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1880</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1881</v>
       </c>
@@ -9037,7 +9046,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1882</v>
       </c>
@@ -9051,7 +9060,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1883</v>
       </c>
@@ -9065,7 +9074,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1884</v>
       </c>
@@ -9079,7 +9088,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1885</v>
       </c>
@@ -9093,7 +9102,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1886</v>
       </c>
@@ -9107,7 +9116,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1887</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1888</v>
       </c>
@@ -9135,7 +9144,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1889</v>
       </c>
@@ -9149,7 +9158,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1890</v>
       </c>
@@ -9163,7 +9172,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1891</v>
       </c>
@@ -9177,7 +9186,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1892</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1893</v>
       </c>
@@ -9205,7 +9214,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1894</v>
       </c>
@@ -9219,7 +9228,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1895</v>
       </c>
@@ -9233,7 +9242,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1896</v>
       </c>
@@ -9247,7 +9256,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1897</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1898</v>
       </c>
@@ -9275,7 +9284,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1899</v>
       </c>
@@ -9289,7 +9298,7 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1900</v>
       </c>
@@ -9303,7 +9312,7 @@
         <v>174.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1901</v>
       </c>
@@ -9317,7 +9326,7 @@
         <v>190.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1902</v>
       </c>
@@ -9331,7 +9340,7 @@
         <v>206.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1903</v>
       </c>
@@ -9345,7 +9354,7 @@
         <v>207.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1904</v>
       </c>
@@ -9359,7 +9368,7 @@
         <v>283.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1905</v>
       </c>
@@ -9373,7 +9382,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1906</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>431.9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1907</v>
       </c>
@@ -9401,7 +9410,7 @@
         <v>490.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1908</v>
       </c>
@@ -9415,7 +9424,7 @@
         <v>493.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1909</v>
       </c>
@@ -9429,7 +9438,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1910</v>
       </c>
@@ -9443,7 +9452,7 @@
         <v>504.3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1911</v>
       </c>
@@ -9457,7 +9466,7 @@
         <v>500.4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1912</v>
       </c>
@@ -9471,7 +9480,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1913</v>
       </c>
@@ -9485,7 +9494,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1914</v>
       </c>
@@ -9499,7 +9508,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1915</v>
       </c>
@@ -9513,7 +9522,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1916</v>
       </c>
@@ -9527,7 +9536,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1917</v>
       </c>
@@ -9541,7 +9550,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1918</v>
       </c>
@@ -9555,7 +9564,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1919</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1920</v>
       </c>
@@ -9583,7 +9592,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1921</v>
       </c>
@@ -9597,7 +9606,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1922</v>
       </c>
@@ -9611,7 +9620,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1923</v>
       </c>
@@ -9625,7 +9634,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1924</v>
       </c>
@@ -9639,7 +9648,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1925</v>
       </c>
@@ -9653,7 +9662,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1926</v>
       </c>
@@ -9667,7 +9676,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1927</v>
       </c>
@@ -9681,7 +9690,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1928</v>
       </c>
@@ -9695,7 +9704,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1929</v>
       </c>
@@ -9709,7 +9718,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1930</v>
       </c>
@@ -9717,7 +9726,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1931</v>
       </c>
@@ -9725,7 +9734,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1932</v>
       </c>
@@ -9733,7 +9742,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1933</v>
       </c>
@@ -9741,7 +9750,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1934</v>
       </c>
@@ -9749,7 +9758,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1935</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1936</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1937</v>
       </c>
@@ -9773,7 +9782,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1938</v>
       </c>
@@ -9781,7 +9790,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1939</v>
       </c>
@@ -9789,7 +9798,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1940</v>
       </c>
@@ -9797,7 +9806,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1941</v>
       </c>
@@ -9805,7 +9814,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1942</v>
       </c>
@@ -9813,7 +9822,7 @@
         <v>8276</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1943</v>
       </c>
@@ -9821,7 +9830,7 @@
         <v>12552</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1944</v>
       </c>
@@ -9829,7 +9838,7 @@
         <v>19872</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1945</v>
       </c>
@@ -9837,7 +9846,7 @@
         <v>21496</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1946</v>
       </c>
@@ -9845,7 +9854,7 @@
         <v>1152000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1947</v>
       </c>
@@ -9853,7 +9862,7 @@
         <v>2058000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1948</v>
       </c>
@@ -9861,7 +9870,7 @@
         <v>4620000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1949</v>
       </c>
@@ -9869,7 +9878,7 @@
         <v>6994000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1950</v>
       </c>
@@ -9877,7 +9886,7 @@
         <v>6333000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1951</v>
       </c>
@@ -9885,7 +9894,7 @@
         <v>7498000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1952</v>
       </c>
@@ -9893,7 +9902,7 @@
         <v>8739000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1953</v>
       </c>
@@ -9901,7 +9910,7 @@
         <v>10172000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1954</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>10408000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1955</v>
       </c>
@@ -9917,7 +9926,7 @@
         <v>10182000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1956</v>
       </c>
@@ -9925,7 +9934,7 @@
         <v>10692000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1957</v>
       </c>
@@ -9933,7 +9942,7 @@
         <v>11877000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1958</v>
       </c>
@@ -9941,7 +9950,7 @@
         <v>13316000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1959</v>
       </c>
@@ -9949,7 +9958,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1960</v>
       </c>
@@ -9970,9 +9979,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9980,7 +9989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1879</v>
       </c>
@@ -9988,7 +9997,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1880</v>
       </c>
@@ -9996,7 +10005,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1881</v>
       </c>
@@ -10004,7 +10013,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1882</v>
       </c>
@@ -10012,7 +10021,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1883</v>
       </c>
@@ -10020,7 +10029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1884</v>
       </c>
@@ -10028,7 +10037,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1885</v>
       </c>
@@ -10036,7 +10045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1886</v>
       </c>
@@ -10044,7 +10053,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1887</v>
       </c>
@@ -10052,7 +10061,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1888</v>
       </c>
@@ -10060,7 +10069,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1889</v>
       </c>
@@ -10068,7 +10077,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1890</v>
       </c>
@@ -10076,7 +10085,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1891</v>
       </c>
@@ -10084,7 +10093,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1892</v>
       </c>
@@ -10092,7 +10101,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1893</v>
       </c>
@@ -10100,7 +10109,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1894</v>
       </c>
@@ -10108,7 +10117,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1895</v>
       </c>
@@ -10116,7 +10125,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1896</v>
       </c>
@@ -10124,7 +10133,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1897</v>
       </c>
@@ -10132,7 +10141,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1898</v>
       </c>
@@ -10140,7 +10149,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1899</v>
       </c>
@@ -10148,7 +10157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1900</v>
       </c>
@@ -10156,7 +10165,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1901</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1902</v>
       </c>
@@ -10172,7 +10181,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1903</v>
       </c>
@@ -10180,7 +10189,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1904</v>
       </c>
@@ -10188,7 +10197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1905</v>
       </c>
@@ -10196,7 +10205,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1906</v>
       </c>
@@ -10204,7 +10213,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1907</v>
       </c>
@@ -10212,7 +10221,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1908</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1909</v>
       </c>
@@ -10228,7 +10237,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1910</v>
       </c>
@@ -10236,7 +10245,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1911</v>
       </c>
@@ -10244,7 +10253,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1912</v>
       </c>
@@ -10252,7 +10261,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1913</v>
       </c>
@@ -10260,7 +10269,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1914</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1915</v>
       </c>
@@ -10276,7 +10285,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1916</v>
       </c>
@@ -10284,7 +10293,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1917</v>
       </c>
@@ -10292,7 +10301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1918</v>
       </c>
@@ -10300,7 +10309,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1919</v>
       </c>
@@ -10308,7 +10317,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1920</v>
       </c>
@@ -10316,7 +10325,7 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1921</v>
       </c>
@@ -10324,7 +10333,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1922</v>
       </c>
@@ -10332,7 +10341,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1923</v>
       </c>
@@ -10340,7 +10349,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1924</v>
       </c>
@@ -10348,7 +10357,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1925</v>
       </c>
@@ -10356,7 +10365,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1926</v>
       </c>
@@ -10364,7 +10373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1927</v>
       </c>
@@ -10372,7 +10381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1928</v>
       </c>
@@ -10380,7 +10389,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1929</v>
       </c>
@@ -10388,7 +10397,7 @@
         <v>116.2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1930</v>
       </c>
@@ -10396,7 +10405,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1931</v>
       </c>
@@ -10404,7 +10413,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1932</v>
       </c>
@@ -10412,7 +10421,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1933</v>
       </c>
@@ -10420,7 +10429,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1934</v>
       </c>
@@ -10428,7 +10437,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1935</v>
       </c>
@@ -10436,7 +10445,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1936</v>
       </c>
@@ -10444,7 +10453,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1937</v>
       </c>
@@ -10452,7 +10461,7 @@
         <v>112.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1938</v>
       </c>
@@ -10473,9 +10482,9 @@
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1873</v>
       </c>
@@ -10500,7 +10509,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1874</v>
       </c>
@@ -10514,7 +10523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1875</v>
       </c>
@@ -10528,7 +10537,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1876</v>
       </c>
@@ -10542,7 +10551,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1877</v>
       </c>
@@ -10556,7 +10565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1878</v>
       </c>
@@ -10570,7 +10579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1879</v>
       </c>
@@ -10584,7 +10593,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1880</v>
       </c>
@@ -10598,7 +10607,7 @@
         <v>95.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1881</v>
       </c>
@@ -10612,7 +10621,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1882</v>
       </c>
@@ -10626,7 +10635,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1883</v>
       </c>
@@ -10640,7 +10649,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1884</v>
       </c>
@@ -10654,7 +10663,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1885</v>
       </c>
@@ -10668,7 +10677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1886</v>
       </c>
@@ -10682,7 +10691,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1887</v>
       </c>
@@ -10696,7 +10705,7 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1888</v>
       </c>
@@ -10710,7 +10719,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1889</v>
       </c>
@@ -10724,7 +10733,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1890</v>
       </c>
@@ -10738,7 +10747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1891</v>
       </c>
@@ -10752,7 +10761,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1892</v>
       </c>
@@ -10766,7 +10775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1893</v>
       </c>
@@ -10780,7 +10789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1894</v>
       </c>
@@ -10794,7 +10803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1895</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1896</v>
       </c>
@@ -10822,7 +10831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1897</v>
       </c>
@@ -10836,7 +10845,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1898</v>
       </c>
@@ -10850,7 +10859,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1899</v>
       </c>
@@ -10864,7 +10873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1900</v>
       </c>
@@ -10878,7 +10887,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1901</v>
       </c>
@@ -10892,7 +10901,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1902</v>
       </c>
@@ -10906,7 +10915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1903</v>
       </c>
@@ -10920,7 +10929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1904</v>
       </c>
@@ -10934,7 +10943,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1905</v>
       </c>
@@ -10948,7 +10957,7 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1906</v>
       </c>
@@ -10962,7 +10971,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1907</v>
       </c>
@@ -10976,7 +10985,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1908</v>
       </c>
@@ -10990,7 +10999,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1909</v>
       </c>
@@ -11004,7 +11013,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1910</v>
       </c>
@@ -11018,7 +11027,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1911</v>
       </c>
@@ -11032,7 +11041,7 @@
         <v>49.375</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1912</v>
       </c>
@@ -11046,7 +11055,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1913</v>
       </c>
@@ -11060,7 +11069,7 @@
         <v>49.625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1914</v>
       </c>
@@ -11074,7 +11083,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1915</v>
       </c>
@@ -11088,7 +11097,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1916</v>
       </c>
@@ -11102,7 +11111,7 @@
         <v>50.375</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1917</v>
       </c>
@@ -11116,7 +11125,7 @@
         <v>50.875</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1918</v>
       </c>
@@ -11130,7 +11139,7 @@
         <v>52.125</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1919</v>
       </c>
@@ -11144,7 +11153,7 @@
         <v>51.875</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1920</v>
       </c>
@@ -11158,7 +11167,7 @@
         <v>50.625</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1921</v>
       </c>
@@ -11172,7 +11181,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1922</v>
       </c>
@@ -11186,7 +11195,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1923</v>
       </c>
@@ -11200,7 +11209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1924</v>
       </c>
@@ -11214,7 +11223,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1925</v>
       </c>
@@ -11228,7 +11237,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1926</v>
       </c>
@@ -11242,7 +11251,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1927</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1928</v>
       </c>
@@ -11270,7 +11279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1929</v>
       </c>
@@ -11284,7 +11293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1930</v>
       </c>
@@ -11298,7 +11307,7 @@
         <v>49.375</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1931</v>
       </c>
@@ -11312,7 +11321,7 @@
         <v>49.375</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1932</v>
       </c>
@@ -11326,7 +11335,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1933</v>
       </c>
@@ -11340,7 +11349,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1934</v>
       </c>
@@ -11354,7 +11363,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1935</v>
       </c>
@@ -11368,7 +11377,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1936</v>
       </c>
@@ -11382,7 +11391,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1937</v>
       </c>
@@ -11396,7 +11405,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1938</v>
       </c>
@@ -11410,7 +11419,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1939</v>
       </c>
@@ -11424,7 +11433,7 @@
         <v>27.375</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1940</v>
       </c>
@@ -11435,57 +11444,57 @@
         <v>4652.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1941</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1942</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1943</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1944</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1945</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1946</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1947</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1948</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1949</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1950</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1951</v>
       </c>
@@ -11496,7 +11505,7 @@
         <v>735700</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1952</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>727300</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1953</v>
       </c>
@@ -11518,7 +11527,7 @@
         <v>862300</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1954</v>
       </c>
@@ -11529,7 +11538,7 @@
         <v>860100</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1955</v>
       </c>
@@ -11540,7 +11549,7 @@
         <v>884000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1956</v>
       </c>
@@ -11551,7 +11560,7 @@
         <v>1154700</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1957</v>
       </c>
@@ -11562,7 +11571,7 @@
         <v>1535900</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1958</v>
       </c>
@@ -11573,7 +11582,7 @@
         <v>1086400</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1959</v>
       </c>
@@ -11584,7 +11593,7 @@
         <v>1288600</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1960</v>
       </c>
@@ -11595,7 +11604,7 @@
         <v>1607200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1961</v>
       </c>
@@ -11606,7 +11615,7 @@
         <v>2103400</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1962</v>
       </c>
@@ -11617,7 +11626,7 @@
         <v>2013100</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1963</v>
       </c>
@@ -11628,7 +11637,7 @@
         <v>2401900</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1964</v>
       </c>
@@ -11639,7 +11648,7 @@
         <v>2834500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1965</v>
       </c>
@@ -11650,7 +11659,7 @@
         <v>2911200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1966</v>
       </c>
@@ -11661,7 +11670,7 @@
         <v>3399900</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1967</v>
       </c>
@@ -11672,7 +11681,7 @@
         <v>4170800</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1968</v>
       </c>
@@ -11683,7 +11692,7 @@
         <v>4643500</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1969</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>5374800</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1970</v>
       </c>
@@ -11711,20 +11720,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a75076d-6340-48f6-9ad9-e0e5c3f8ac62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a75076d-6340-48f6-9ad9-e0e5c3f8ac62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11884,6 +11893,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FD250D-C4E7-4BAF-93F0-39C302D43D43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B07C7BB-3DB2-42F9-97E7-9321B78EF00C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11895,14 +11912,6 @@
     <ds:schemaRef ds:uri="3a75076d-6340-48f6-9ad9-e0e5c3f8ac62"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FD250D-C4E7-4BAF-93F0-39C302D43D43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
